--- a/unit_tests.xlsx
+++ b/unit_tests.xlsx
@@ -11,6 +11,9 @@
     <sheet name="items" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="tblItems">items!$A$1:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -750,7 +753,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/unit_tests.xlsx
+++ b/unit_tests.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="headers" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="checklist" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="tblItems">items!$A$1:$D$9</definedName>
+    <definedName name="exChkLst">checklist!$A$1:$D$2</definedName>
+    <definedName name="exItems">items!$A$1:$D$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>chklst_header_text</t>
   </si>
@@ -70,6 +71,27 @@
   </si>
   <si>
     <t>All unit tests are complete.</t>
+  </si>
+  <si>
+    <t>chklst_name</t>
+  </si>
+  <si>
+    <t>template_id</t>
+  </si>
+  <si>
+    <t>area_code</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Panic Plan</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>This Panic Pan is based on science fiction.</t>
   </si>
 </sst>
 </file>
@@ -469,7 +491,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,12 +920,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/unit_tests.xlsx
+++ b/unit_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7170" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="headers" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,12 @@
     <t>PG</t>
   </si>
   <si>
-    <t>This Panic Pan is based on science fiction.</t>
+    <t xml:space="preserve">The Quality Checklist criteria for assessing CAFE.505.2.1 Change Readiness Campaign Material Deliverable were derived by SLI from the requirements in the approved DED, the CAFÉ Project RFP and Deloitte’s Contract with DCFS.  In addition, SLI relied on best practice examples and industry standards.  Specifically, the Quality Checklist criteria for the Deliverable were derived from:
+• Approved DED, RFP and Deloitte’s Contract (Statement of Work) with DCFS
+• Project Management Plan (PMP), PMP sub-plans and PMO standards for the One DCFS Transformation Project
+• IEEE 1063-2001 – Standard for Software User Documentation
+• IEEE 1490-2003 – A guide to the Project Management Body of Knowledge (PMBOK)
+</t>
   </si>
 </sst>
 </file>
@@ -774,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -958,7 +963,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
     </row>

--- a/unit_tests.xlsx
+++ b/unit_tests.xlsx
@@ -4,37 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7170" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="headers" sheetId="1" r:id="rId1"/>
-    <sheet name="items" sheetId="2" r:id="rId2"/>
-    <sheet name="checklist" sheetId="3" r:id="rId3"/>
+    <sheet name="checklist" sheetId="3" r:id="rId1"/>
+    <sheet name="headers" sheetId="1" r:id="rId2"/>
+    <sheet name="items" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="exChkLst">checklist!$A$1:$D$2</definedName>
-    <definedName name="exItems">items!$A$1:$D$9</definedName>
+    <definedName name="exHeaders">headers!$A$1:$B$4</definedName>
+    <definedName name="exItems">items!$A$1:$B$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>chklst_header_text</t>
   </si>
   <si>
     <t>sequence</t>
-  </si>
-  <si>
-    <t>chklst_id</t>
-  </si>
-  <si>
-    <t>include</t>
-  </si>
-  <si>
-    <t>chklst_header_id</t>
   </si>
   <si>
     <t>chklst_item_text</t>
@@ -493,442 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>54</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="73" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>259</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>259</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>259</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>260</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>260</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>260</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>261</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>261</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,33 +501,384 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="73" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/unit_tests.xlsx
+++ b/unit_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7170" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="items" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="exChkLst">checklist!$A$1:$D$2</definedName>
+    <definedName name="exChkLst">checklist!$A$1:$D$4</definedName>
     <definedName name="exHeaders">headers!$A$1:$B$4</definedName>
     <definedName name="exItems">items!$A$1:$B$9</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>chklst_header_text</t>
   </si>
@@ -77,18 +77,37 @@
     <t>reference</t>
   </si>
   <si>
-    <t>Panic Plan</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Quality Checklist criteria for assessing CAFE.505.2.1 Change Readiness Campaign Material Deliverable were derived by SLI from the requirements in the approved DED, the CAFÉ Project RFP and Deloitte’s Contract with DCFS.  In addition, SLI relied on best practice examples and industry standards.  Specifically, the Quality Checklist criteria for the Deliverable were derived from:
-• Approved DED, RFP and Deloitte’s Contract (Statement of Work) with DCFS
-• Project Management Plan (PMP), PMP sub-plans and PMO standards for the One DCFS Transformation Project
-• IEEE 1063-2001 – Standard for Software User Documentation
-• IEEE 1490-2003 – A guide to the Project Management Body of Knowledge (PMBOK)
-</t>
+    <t>Statewide Incremental Release Implementation Deployment Plan</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>The Quality Checklist for CAFÉ 901.2.1 is essentially the same as the checklist used by the SLI QA team for assessing the Release 1 document.  The original Quality Checklist was derived by SLI from the requirements in the approved DED, the CAFÉ Project RFP and the Contract / Statement of Work (SOW).  In addition, SLI relied on best practice examples and industry standards.  Specifically, the Quality Checklist for CAFÉ 902.1 was derived from the following sources:
+·         Relevant Subsections of CAFÉ RFP
+·         Relevant Subsections of CAFÉ Contract / SOW
+·         Approved DED
+·         IEEE standard 1063-2001 – Standard for Software User Documentation
+·         IEEE 1490-2003 – A guide to the Project Management Body of Knowledge
+·         SLI SQM3 Best Practice Examples</t>
+  </si>
+  <si>
+    <t>Blah</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Blah, blah blah</t>
+  </si>
+  <si>
+    <t>Bleak</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Bleak, bleak, bleak</t>
   </si>
 </sst>
 </file>
@@ -485,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,12 +532,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -527,8 +546,37 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -536,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
